--- a/Healer/Analysis.xlsx
+++ b/Healer/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="精炼（六级）数据" sheetId="1" r:id="rId1"/>
@@ -194,15 +194,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本底治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>差异值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可折损治疗</t>
+    <t>可重铸治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1652,18 +1652,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="11" width="19.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -1701,13 +1700,13 @@
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -1739,23 +1738,23 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <f>ABS(ROUND(B2*0.70401,0)-C2)</f>
+        <f>ABS(ROUND(B2*88/125,0)-C2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f>ABS(ROUND(G2*13/11,0)-SUM(D2:E2))</f>
+        <f>ABS(ROUND(B2*481/1375,0)-F2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <f>ABS(ROUND(G2*13/16,0)-D2)</f>
-        <v>1</v>
+        <f>ABS(ROUND(B2*481/2000,0)-D2)</f>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>ROUND(G2*9/4,0)</f>
+        <f>ROUND(B2*333/500,0)</f>
         <v>389</v>
       </c>
       <c r="M2" s="1">
-        <f>B2-$L2</f>
+        <f>ROUND(B2*167/500,0)</f>
         <v>195</v>
       </c>
       <c r="N2" s="1">
@@ -1791,24 +1790,24 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="2">ABS(ROUND(B3*0.70401,0)-C3)</f>
+        <f t="shared" ref="I3:I10" si="2">ABS(ROUND(B3*88/125,0)-C3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J10" si="3">ABS(ROUND(G3*13/11,0)-SUM(D3:E3))</f>
-        <v>1</v>
+        <f t="shared" ref="J3:J10" si="3">ABS(ROUND(B3*481/1375,0)-F3)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K10" si="4">ABS(ROUND(G3*13/16,0)-D3)</f>
+        <f t="shared" ref="K3:K10" si="4">ABS(ROUND(B3*481/2000,0)-D3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L10" si="5">ROUND(G3*9/4,0)</f>
-        <v>428</v>
+        <f t="shared" ref="L3:L10" si="5">ROUND(B3*333/500,0)</f>
+        <v>427</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M10" si="6">B3-$L3</f>
-        <v>213</v>
+        <f t="shared" ref="M3:M10" si="6">ROUND(B3*167/500,0)</f>
+        <v>214</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N10" si="7">ABS(M3+ROUND(L3*5/9,0)-C3)</f>
@@ -1849,7 +1848,7 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="4"/>
@@ -1857,15 +1856,15 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" si="5"/>
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="6"/>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1901,23 +1900,23 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="5"/>
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="6"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -2015,15 +2014,15 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="5"/>
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="6"/>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2060,23 +2059,23 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="5"/>
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="6"/>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2166,7 +2165,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
